--- a/template_guru__2024.xlsx
+++ b/template_guru__2024.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2337,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
